--- a/SuiteRec-Ranking.xlsx
+++ b/SuiteRec-Ranking.xlsx
@@ -18,14 +18,32 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="2">
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>YES</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Yu Gothic"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -49,11 +67,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -69,7 +90,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -114,7 +135,7 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -149,7 +170,7 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -331,12 +352,190 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A1" s="1">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A2" s="1">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A3" s="1">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A4" s="1">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A5" s="1">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A6" s="1">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A10" s="1">
+        <v>10</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A1:E10">
+    <sortCondition ref="A1:A10"/>
+  </sortState>
+  <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/SuiteRec-Ranking.xlsx
+++ b/SuiteRec-Ranking.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="2">
   <si>
     <t>NO</t>
   </si>
@@ -352,10 +352,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="K39" sqref="K39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
@@ -530,9 +530,179 @@
         <v>0</v>
       </c>
     </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A12" s="1">
+        <v>1</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A13" s="1">
+        <v>2</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A14" s="1">
+        <v>3</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A15" s="1">
+        <v>4</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A16" s="1">
+        <v>5</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A17" s="1">
+        <v>6</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A18" s="1">
+        <v>7</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A19" s="1">
+        <v>8</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A20" s="1">
+        <v>9</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A21" s="1">
+        <v>10</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState ref="A1:E10">
-    <sortCondition ref="A1:A10"/>
+  <sortState ref="A12:E21">
+    <sortCondition ref="A12:A21"/>
   </sortState>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SuiteRec-Ranking.xlsx
+++ b/SuiteRec-Ranking.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="2">
   <si>
     <t>NO</t>
   </si>
@@ -352,15 +352,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K39" sqref="K39"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A1" s="1">
         <v>1</v>
       </c>
@@ -376,8 +376,11 @@
       <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="F1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A2" s="1">
         <v>2</v>
       </c>
@@ -393,8 +396,11 @@
       <c r="E2" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="F2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A3" s="1">
         <v>3</v>
       </c>
@@ -410,8 +416,11 @@
       <c r="E3" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="F3" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A4" s="1">
         <v>4</v>
       </c>
@@ -427,8 +436,11 @@
       <c r="E4" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="F4" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A5" s="1">
         <v>5</v>
       </c>
@@ -444,8 +456,11 @@
       <c r="E5" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="F5" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A6" s="1">
         <v>6</v>
       </c>
@@ -461,10 +476,13 @@
       <c r="E6" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="F6" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A7" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>0</v>
@@ -473,15 +491,18 @@
         <v>0</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="F7" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A8" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>0</v>
@@ -490,15 +511,18 @@
         <v>0</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="F8" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A9" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>0</v>
@@ -512,8 +536,11 @@
       <c r="E9" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="F9" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A10" s="1">
         <v>10</v>
       </c>
@@ -529,8 +556,11 @@
       <c r="E10" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="F10" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A12" s="1">
         <v>1</v>
       </c>
@@ -546,8 +576,11 @@
       <c r="E12" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="F12" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A13" s="1">
         <v>2</v>
       </c>
@@ -563,8 +596,11 @@
       <c r="E13" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="F13" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A14" s="1">
         <v>3</v>
       </c>
@@ -580,8 +616,11 @@
       <c r="E14" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="F14" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A15" s="1">
         <v>4</v>
       </c>
@@ -597,8 +636,11 @@
       <c r="E15" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="F15" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A16" s="1">
         <v>5</v>
       </c>
@@ -614,8 +656,11 @@
       <c r="E16" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="F16" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A17" s="1">
         <v>6</v>
       </c>
@@ -631,8 +676,11 @@
       <c r="E17" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="F17" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A18" s="1">
         <v>7</v>
       </c>
@@ -648,8 +696,11 @@
       <c r="E18" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="F18" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A19" s="1">
         <v>8</v>
       </c>
@@ -665,8 +716,11 @@
       <c r="E19" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="F19" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A20" s="1">
         <v>9</v>
       </c>
@@ -682,8 +736,11 @@
       <c r="E20" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="F20" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A21" s="1">
         <v>10</v>
       </c>
@@ -699,10 +756,13 @@
       <c r="E21" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="F21" s="1" t="s">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <sortState ref="A12:E21">
-    <sortCondition ref="A12:A21"/>
+  <sortState ref="A1:F10">
+    <sortCondition ref="A1:A10"/>
   </sortState>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
